--- a/test-files/data_file-cleaned.xlsx
+++ b/test-files/data_file-cleaned.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27601"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F84326-2C3A-4B55-B547-D1992357A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7789D992-1A31-42A8-B0FF-E2ADAD967FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TblCatalogFolder" sheetId="1" r:id="rId1"/>
     <sheet name="TblVideo" sheetId="2" r:id="rId2"/>
-    <sheet name="TblStillExport" sheetId="3" r:id="rId3"/>
-    <sheet name="TblSightings" sheetId="4" r:id="rId4"/>
-    <sheet name="PKH work- ignore" sheetId="5" r:id="rId5"/>
+    <sheet name="Association" sheetId="6" r:id="rId3"/>
+    <sheet name="TblStillExport" sheetId="3" r:id="rId4"/>
+    <sheet name="TblSightings" sheetId="4" r:id="rId5"/>
+    <sheet name="PKH work- ignore" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -130,6 +131,58 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{348FD3DE-C986-402C-B677-73BA3C4FC638}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Philip Hamilton:
+auto generated- next available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{FE631742-10FA-41D3-BC89-6D09539A5C15}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Philip Hamilton:
+Ideally- the user would be able to open the sightings table and click on the row and it would enter the SightingID for that row</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{55F620CD-A242-473A-B697-46E04D1DFEAD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Philip Hamilton:
+Ideally- the user would be able to open the sightings table and click on the row and it would enter the SightingID for that row</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
@@ -191,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
   <si>
     <t>CatalogFolderId</t>
   </si>
@@ -2097,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3154,6 +3207,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4195E627-F901-4439-AAE1-7EE3772AD9E6}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="E1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>117137</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45362.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
@@ -4200,7 +4316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
@@ -6228,7 +6344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
